--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1000.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1000.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.266955284869844</v>
+        <v>1.703862428665161</v>
       </c>
       <c r="B1">
-        <v>2.753250080385878</v>
+        <v>1.854307293891907</v>
       </c>
       <c r="C1">
-        <v>4.758369909771693</v>
+        <v>1.847112655639648</v>
       </c>
       <c r="D1">
-        <v>2.107933947638321</v>
+        <v>2.405254364013672</v>
       </c>
       <c r="E1">
-        <v>0.9334277644387977</v>
+        <v>3.022364616394043</v>
       </c>
     </row>
   </sheetData>
